--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,15 +76,6 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>sCs</t>
-  </si>
-  <si>
-    <t>Fndc5</t>
-  </si>
-  <si>
-    <t>Itgav</t>
-  </si>
-  <si>
     <t>ECs</t>
   </si>
   <si>
@@ -98,6 +89,15 @@
   </si>
   <si>
     <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
+    <t>Fndc5</t>
+  </si>
+  <si>
+    <t>Itgav</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>2.51960474290592</v>
+        <v>0.296314</v>
       </c>
       <c r="H2">
-        <v>2.51960474290592</v>
+        <v>0.592628</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05659894607669059</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.05026307993292579</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N2">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O2">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P2">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q2">
-        <v>35.88970317932871</v>
+        <v>4.441573516310001</v>
       </c>
       <c r="R2">
-        <v>35.88970317932871</v>
+        <v>17.76629406524</v>
       </c>
       <c r="S2">
-        <v>0.0541661875032648</v>
+        <v>0.003139796117655063</v>
       </c>
       <c r="T2">
-        <v>0.0541661875032648</v>
+        <v>0.001957139348326275</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>2.51960474290592</v>
+        <v>0.296314</v>
       </c>
       <c r="H3">
-        <v>2.51960474290592</v>
+        <v>0.592628</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.05659894607669059</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.05026307993292579</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N3">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P3">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q3">
-        <v>138.4076147972756</v>
+        <v>17.261918152802</v>
       </c>
       <c r="R3">
-        <v>138.4076147972756</v>
+        <v>103.571508916812</v>
       </c>
       <c r="S3">
-        <v>0.2088903543595454</v>
+        <v>0.01220263571016492</v>
       </c>
       <c r="T3">
-        <v>0.2088903543595454</v>
+        <v>0.01140946303839535</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>2.51960474290592</v>
+        <v>0.296314</v>
       </c>
       <c r="H4">
-        <v>2.51960474290592</v>
+        <v>0.592628</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.05659894607669059</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.05026307993292579</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N4">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O4">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P4">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q4">
-        <v>198.6425476785647</v>
+        <v>23.758135611938</v>
       </c>
       <c r="R4">
-        <v>198.6425476785647</v>
+        <v>142.548813671628</v>
       </c>
       <c r="S4">
-        <v>0.2997993443947063</v>
+        <v>0.0167948817425088</v>
       </c>
       <c r="T4">
-        <v>0.2997993443947063</v>
+        <v>0.01570321257035913</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>2.51960474290592</v>
+        <v>0.296314</v>
       </c>
       <c r="H5">
-        <v>2.51960474290592</v>
+        <v>0.592628</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.05659894607669059</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.05026307993292579</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N5">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O5">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P5">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q5">
-        <v>197.9728897430529</v>
+        <v>23.51117784474734</v>
       </c>
       <c r="R5">
-        <v>197.9728897430529</v>
+        <v>141.067067068484</v>
       </c>
       <c r="S5">
-        <v>0.2987886696305061</v>
+        <v>0.01662030463919109</v>
       </c>
       <c r="T5">
-        <v>0.2987886696305061</v>
+        <v>0.01553998299807958</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>2.51960474290592</v>
+        <v>0.296314</v>
       </c>
       <c r="H6">
-        <v>2.51960474290592</v>
+        <v>0.592628</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.05659894607669059</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.05026307993292579</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N6">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O6">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P6">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q6">
-        <v>26.99137460968561</v>
+        <v>3.474581519768001</v>
       </c>
       <c r="R6">
-        <v>26.99137460968561</v>
+        <v>20.84748911860801</v>
       </c>
       <c r="S6">
-        <v>0.04073647114811378</v>
+        <v>0.00245621906880133</v>
       </c>
       <c r="T6">
-        <v>0.04073647114811378</v>
+        <v>0.002296564557470663</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,1921 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.296314</v>
+      </c>
+      <c r="H7">
+        <v>0.592628</v>
+      </c>
+      <c r="I7">
+        <v>0.05659894607669059</v>
+      </c>
+      <c r="J7">
+        <v>0.05026307993292579</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>25.708558</v>
+      </c>
+      <c r="N7">
+        <v>51.417116</v>
+      </c>
+      <c r="O7">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="P7">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="Q7">
+        <v>7.617805655212001</v>
+      </c>
+      <c r="R7">
+        <v>30.471222620848</v>
+      </c>
+      <c r="S7">
+        <v>0.005385108798369382</v>
+      </c>
+      <c r="T7">
+        <v>0.003356717420294804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.6194636666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.858391</v>
+      </c>
+      <c r="I8">
+        <v>0.1183237736527323</v>
+      </c>
+      <c r="J8">
+        <v>0.1576173508164142</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>14.989415</v>
+      </c>
+      <c r="N8">
+        <v>29.97883</v>
+      </c>
+      <c r="O8">
+        <v>0.05547446260572933</v>
+      </c>
+      <c r="P8">
+        <v>0.03893791130463959</v>
+      </c>
+      <c r="Q8">
+        <v>9.285397977088335</v>
+      </c>
+      <c r="R8">
+        <v>55.71238786253001</v>
+      </c>
+      <c r="S8">
+        <v>0.006563947756867277</v>
+      </c>
+      <c r="T8">
+        <v>0.006137290426161798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.6194636666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.858391</v>
+      </c>
+      <c r="I9">
+        <v>0.1183237736527323</v>
+      </c>
+      <c r="J9">
+        <v>0.1576173508164142</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>58.255493</v>
+      </c>
+      <c r="N9">
+        <v>174.766479</v>
+      </c>
+      <c r="O9">
+        <v>0.2155982850569436</v>
+      </c>
+      <c r="P9">
+        <v>0.2269949046819425</v>
+      </c>
+      <c r="Q9">
+        <v>36.08716129725434</v>
+      </c>
+      <c r="R9">
+        <v>324.784451675289</v>
+      </c>
+      <c r="S9">
+        <v>0.02551040268099504</v>
+      </c>
+      <c r="T9">
+        <v>0.03577833552479222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.6194636666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.858391</v>
+      </c>
+      <c r="I10">
+        <v>0.1183237736527323</v>
+      </c>
+      <c r="J10">
+        <v>0.1576173508164142</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>80.178917</v>
+      </c>
+      <c r="N10">
+        <v>240.536751</v>
+      </c>
+      <c r="O10">
+        <v>0.2967348847759819</v>
+      </c>
+      <c r="P10">
+        <v>0.3124204205415681</v>
+      </c>
+      <c r="Q10">
+        <v>49.66792591418234</v>
+      </c>
+      <c r="R10">
+        <v>447.011333227641</v>
+      </c>
+      <c r="S10">
+        <v>0.03511079134110287</v>
+      </c>
+      <c r="T10">
+        <v>0.04924287902671199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.6194636666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.858391</v>
+      </c>
+      <c r="I11">
+        <v>0.1183237736527323</v>
+      </c>
+      <c r="J11">
+        <v>0.1576173508164142</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>79.34548433333335</v>
+      </c>
+      <c r="N11">
+        <v>238.036453</v>
+      </c>
+      <c r="O11">
+        <v>0.2936504262229702</v>
+      </c>
+      <c r="P11">
+        <v>0.3091729161606711</v>
+      </c>
+      <c r="Q11">
+        <v>49.15164465856924</v>
+      </c>
+      <c r="R11">
+        <v>442.3648019271231</v>
+      </c>
+      <c r="S11">
+        <v>0.03474582656543507</v>
+      </c>
+      <c r="T11">
+        <v>0.0487310159894303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.6194636666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.858391</v>
+      </c>
+      <c r="I12">
+        <v>0.1183237736527323</v>
+      </c>
+      <c r="J12">
+        <v>0.1576173508164142</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>11.726012</v>
+      </c>
+      <c r="N12">
+        <v>35.17803600000001</v>
+      </c>
+      <c r="O12">
+        <v>0.04339690469630293</v>
+      </c>
+      <c r="P12">
+        <v>0.04569088405516222</v>
+      </c>
+      <c r="Q12">
+        <v>7.263838388897335</v>
+      </c>
+      <c r="R12">
+        <v>65.37454550007601</v>
+      </c>
+      <c r="S12">
+        <v>0.005134885528514541</v>
+      </c>
+      <c r="T12">
+        <v>0.007201676101234608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.6194636666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.858391</v>
+      </c>
+      <c r="I13">
+        <v>0.1183237736527323</v>
+      </c>
+      <c r="J13">
+        <v>0.1576173508164142</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>25.708558</v>
+      </c>
+      <c r="N13">
+        <v>51.417116</v>
+      </c>
+      <c r="O13">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="P13">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="Q13">
+        <v>15.92551760339267</v>
+      </c>
+      <c r="R13">
+        <v>95.55310562035601</v>
+      </c>
+      <c r="S13">
+        <v>0.01125791977981744</v>
+      </c>
+      <c r="T13">
+        <v>0.01052615374808325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.51960474290592</v>
-      </c>
-      <c r="H7">
-        <v>2.51960474290592</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>25.6710371265428</v>
-      </c>
-      <c r="N7">
-        <v>25.6710371265428</v>
-      </c>
-      <c r="O7">
-        <v>0.09761897296386338</v>
-      </c>
-      <c r="P7">
-        <v>0.09761897296386338</v>
-      </c>
-      <c r="Q7">
-        <v>64.6808668993512</v>
-      </c>
-      <c r="R7">
-        <v>64.6808668993512</v>
-      </c>
-      <c r="S7">
-        <v>0.09761897296386338</v>
-      </c>
-      <c r="T7">
-        <v>0.09761897296386338</v>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1489083333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.446725</v>
+      </c>
+      <c r="I14">
+        <v>0.02844298524100515</v>
+      </c>
+      <c r="J14">
+        <v>0.03788848043466774</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>14.989415</v>
+      </c>
+      <c r="N14">
+        <v>29.97883</v>
+      </c>
+      <c r="O14">
+        <v>0.05547446260572933</v>
+      </c>
+      <c r="P14">
+        <v>0.03893791130463959</v>
+      </c>
+      <c r="Q14">
+        <v>2.232048805291667</v>
+      </c>
+      <c r="R14">
+        <v>13.39229283175</v>
+      </c>
+      <c r="S14">
+        <v>0.001577859321147452</v>
+      </c>
+      <c r="T14">
+        <v>0.001475298290632665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1489083333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.446725</v>
+      </c>
+      <c r="I15">
+        <v>0.02844298524100515</v>
+      </c>
+      <c r="J15">
+        <v>0.03788848043466774</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>58.255493</v>
+      </c>
+      <c r="N15">
+        <v>174.766479</v>
+      </c>
+      <c r="O15">
+        <v>0.2155982850569436</v>
+      </c>
+      <c r="P15">
+        <v>0.2269949046819425</v>
+      </c>
+      <c r="Q15">
+        <v>8.674728370141667</v>
+      </c>
+      <c r="R15">
+        <v>78.072555331275</v>
+      </c>
+      <c r="S15">
+        <v>0.00613225883986067</v>
+      </c>
+      <c r="T15">
+        <v>0.008600492004811047</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1489083333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.446725</v>
+      </c>
+      <c r="I16">
+        <v>0.02844298524100515</v>
+      </c>
+      <c r="J16">
+        <v>0.03788848043466774</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>80.178917</v>
+      </c>
+      <c r="N16">
+        <v>240.536751</v>
+      </c>
+      <c r="O16">
+        <v>0.2967348847759819</v>
+      </c>
+      <c r="P16">
+        <v>0.3124204205415681</v>
+      </c>
+      <c r="Q16">
+        <v>11.93930889894167</v>
+      </c>
+      <c r="R16">
+        <v>107.453780090475</v>
+      </c>
+      <c r="S16">
+        <v>0.008440025948174619</v>
+      </c>
+      <c r="T16">
+        <v>0.01183713499107987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1489083333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.446725</v>
+      </c>
+      <c r="I17">
+        <v>0.02844298524100515</v>
+      </c>
+      <c r="J17">
+        <v>0.03788848043466774</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>79.34548433333335</v>
+      </c>
+      <c r="N17">
+        <v>238.036453</v>
+      </c>
+      <c r="O17">
+        <v>0.2936504262229702</v>
+      </c>
+      <c r="P17">
+        <v>0.3091729161606711</v>
+      </c>
+      <c r="Q17">
+        <v>11.81520382960278</v>
+      </c>
+      <c r="R17">
+        <v>106.336834466425</v>
+      </c>
+      <c r="S17">
+        <v>0.008352294739074813</v>
+      </c>
+      <c r="T17">
+        <v>0.01171409198488276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1489083333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.446725</v>
+      </c>
+      <c r="I18">
+        <v>0.02844298524100515</v>
+      </c>
+      <c r="J18">
+        <v>0.03788848043466774</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>11.726012</v>
+      </c>
+      <c r="N18">
+        <v>35.17803600000001</v>
+      </c>
+      <c r="O18">
+        <v>0.04339690469630293</v>
+      </c>
+      <c r="P18">
+        <v>0.04569088405516222</v>
+      </c>
+      <c r="Q18">
+        <v>1.746100903566667</v>
+      </c>
+      <c r="R18">
+        <v>15.7149081321</v>
+      </c>
+      <c r="S18">
+        <v>0.001234337519782251</v>
+      </c>
+      <c r="T18">
+        <v>0.001731158166566686</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1489083333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.446725</v>
+      </c>
+      <c r="I19">
+        <v>0.02844298524100515</v>
+      </c>
+      <c r="J19">
+        <v>0.03788848043466774</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>25.708558</v>
+      </c>
+      <c r="N19">
+        <v>51.417116</v>
+      </c>
+      <c r="O19">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="P19">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="Q19">
+        <v>3.828218524183333</v>
+      </c>
+      <c r="R19">
+        <v>22.9693111451</v>
+      </c>
+      <c r="S19">
+        <v>0.002706208872965348</v>
+      </c>
+      <c r="T19">
+        <v>0.002530304996694716</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.144899</v>
+      </c>
+      <c r="H20">
+        <v>0.434697</v>
+      </c>
+      <c r="I20">
+        <v>0.02767716236008555</v>
+      </c>
+      <c r="J20">
+        <v>0.03686833908894457</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.989415</v>
+      </c>
+      <c r="N20">
+        <v>29.97883</v>
+      </c>
+      <c r="O20">
+        <v>0.05547446260572933</v>
+      </c>
+      <c r="P20">
+        <v>0.03893791130463959</v>
+      </c>
+      <c r="Q20">
+        <v>2.171951244085</v>
+      </c>
+      <c r="R20">
+        <v>13.03170746451</v>
+      </c>
+      <c r="S20">
+        <v>0.001535375708377265</v>
+      </c>
+      <c r="T20">
+        <v>0.0014355761173947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.144899</v>
+      </c>
+      <c r="H21">
+        <v>0.434697</v>
+      </c>
+      <c r="I21">
+        <v>0.02767716236008555</v>
+      </c>
+      <c r="J21">
+        <v>0.03686833908894457</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>58.255493</v>
+      </c>
+      <c r="N21">
+        <v>174.766479</v>
+      </c>
+      <c r="O21">
+        <v>0.2155982850569436</v>
+      </c>
+      <c r="P21">
+        <v>0.2269949046819425</v>
+      </c>
+      <c r="Q21">
+        <v>8.441162680207</v>
+      </c>
+      <c r="R21">
+        <v>75.970464121863</v>
+      </c>
+      <c r="S21">
+        <v>0.005967148740077035</v>
+      </c>
+      <c r="T21">
+        <v>0.008368925117276505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.144899</v>
+      </c>
+      <c r="H22">
+        <v>0.434697</v>
+      </c>
+      <c r="I22">
+        <v>0.02767716236008555</v>
+      </c>
+      <c r="J22">
+        <v>0.03686833908894457</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>80.178917</v>
+      </c>
+      <c r="N22">
+        <v>240.536751</v>
+      </c>
+      <c r="O22">
+        <v>0.2967348847759819</v>
+      </c>
+      <c r="P22">
+        <v>0.3124204205415681</v>
+      </c>
+      <c r="Q22">
+        <v>11.617844894383</v>
+      </c>
+      <c r="R22">
+        <v>104.560604049447</v>
+      </c>
+      <c r="S22">
+        <v>0.008212779583846129</v>
+      </c>
+      <c r="T22">
+        <v>0.0115184220028372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.144899</v>
+      </c>
+      <c r="H23">
+        <v>0.434697</v>
+      </c>
+      <c r="I23">
+        <v>0.02767716236008555</v>
+      </c>
+      <c r="J23">
+        <v>0.03686833908894457</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>79.34548433333335</v>
+      </c>
+      <c r="N23">
+        <v>238.036453</v>
+      </c>
+      <c r="O23">
+        <v>0.2936504262229702</v>
+      </c>
+      <c r="P23">
+        <v>0.3091729161606711</v>
+      </c>
+      <c r="Q23">
+        <v>11.49708133441567</v>
+      </c>
+      <c r="R23">
+        <v>103.473732009741</v>
+      </c>
+      <c r="S23">
+        <v>0.008127410523681468</v>
+      </c>
+      <c r="T23">
+        <v>0.01139869191012945</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.144899</v>
+      </c>
+      <c r="H24">
+        <v>0.434697</v>
+      </c>
+      <c r="I24">
+        <v>0.02767716236008555</v>
+      </c>
+      <c r="J24">
+        <v>0.03686833908894457</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>11.726012</v>
+      </c>
+      <c r="N24">
+        <v>35.17803600000001</v>
+      </c>
+      <c r="O24">
+        <v>0.04339690469630293</v>
+      </c>
+      <c r="P24">
+        <v>0.04569088405516222</v>
+      </c>
+      <c r="Q24">
+        <v>1.699087412788</v>
+      </c>
+      <c r="R24">
+        <v>15.291786715092</v>
+      </c>
+      <c r="S24">
+        <v>0.001201103177204735</v>
+      </c>
+      <c r="T24">
+        <v>0.001684547006619371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.144899</v>
+      </c>
+      <c r="H25">
+        <v>0.434697</v>
+      </c>
+      <c r="I25">
+        <v>0.02767716236008555</v>
+      </c>
+      <c r="J25">
+        <v>0.03686833908894457</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>25.708558</v>
+      </c>
+      <c r="N25">
+        <v>51.417116</v>
+      </c>
+      <c r="O25">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="P25">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="Q25">
+        <v>3.725144345642</v>
+      </c>
+      <c r="R25">
+        <v>22.350866073852</v>
+      </c>
+      <c r="S25">
+        <v>0.002633344626898915</v>
+      </c>
+      <c r="T25">
+        <v>0.002462176934687342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.4065976666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.219793</v>
+      </c>
+      <c r="I26">
+        <v>0.07766423257279401</v>
+      </c>
+      <c r="J26">
+        <v>0.1034553768310363</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>14.989415</v>
+      </c>
+      <c r="N26">
+        <v>29.97883</v>
+      </c>
+      <c r="O26">
+        <v>0.05547446260572933</v>
+      </c>
+      <c r="P26">
+        <v>0.03893791130463959</v>
+      </c>
+      <c r="Q26">
+        <v>6.094661163698334</v>
+      </c>
+      <c r="R26">
+        <v>36.56796698219001</v>
+      </c>
+      <c r="S26">
+        <v>0.004308381565662127</v>
+      </c>
+      <c r="T26">
+        <v>0.004028336287034955</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.4065976666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.219793</v>
+      </c>
+      <c r="I27">
+        <v>0.07766423257279401</v>
+      </c>
+      <c r="J27">
+        <v>0.1034553768310363</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>58.255493</v>
+      </c>
+      <c r="N27">
+        <v>174.766479</v>
+      </c>
+      <c r="O27">
+        <v>0.2155982850569436</v>
+      </c>
+      <c r="P27">
+        <v>0.2269949046819425</v>
+      </c>
+      <c r="Q27">
+        <v>23.68654752431634</v>
+      </c>
+      <c r="R27">
+        <v>213.178927718847</v>
+      </c>
+      <c r="S27">
+        <v>0.01674427535295801</v>
+      </c>
+      <c r="T27">
+        <v>0.02348384340259551</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.4065976666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.219793</v>
+      </c>
+      <c r="I28">
+        <v>0.07766423257279401</v>
+      </c>
+      <c r="J28">
+        <v>0.1034553768310363</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>80.178917</v>
+      </c>
+      <c r="N28">
+        <v>240.536751</v>
+      </c>
+      <c r="O28">
+        <v>0.2967348847759819</v>
+      </c>
+      <c r="P28">
+        <v>0.3124204205415681</v>
+      </c>
+      <c r="Q28">
+        <v>32.60056056806034</v>
+      </c>
+      <c r="R28">
+        <v>293.4050451125431</v>
+      </c>
+      <c r="S28">
+        <v>0.02304568710370309</v>
+      </c>
+      <c r="T28">
+        <v>0.03232157233683875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.4065976666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.219793</v>
+      </c>
+      <c r="I29">
+        <v>0.07766423257279401</v>
+      </c>
+      <c r="J29">
+        <v>0.1034553768310363</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>79.34548433333335</v>
+      </c>
+      <c r="N29">
+        <v>238.036453</v>
+      </c>
+      <c r="O29">
+        <v>0.2936504262229702</v>
+      </c>
+      <c r="P29">
+        <v>0.3091729161606711</v>
+      </c>
+      <c r="Q29">
+        <v>32.2616887904699</v>
+      </c>
+      <c r="R29">
+        <v>290.355199114229</v>
+      </c>
+      <c r="S29">
+        <v>0.02280613499728084</v>
+      </c>
+      <c r="T29">
+        <v>0.03198560054735261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.4065976666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.219793</v>
+      </c>
+      <c r="I30">
+        <v>0.07766423257279401</v>
+      </c>
+      <c r="J30">
+        <v>0.1034553768310363</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>11.726012</v>
+      </c>
+      <c r="N30">
+        <v>35.17803600000001</v>
+      </c>
+      <c r="O30">
+        <v>0.04339690469630293</v>
+      </c>
+      <c r="P30">
+        <v>0.04569088405516222</v>
+      </c>
+      <c r="Q30">
+        <v>4.767769118505335</v>
+      </c>
+      <c r="R30">
+        <v>42.90992206654801</v>
+      </c>
+      <c r="S30">
+        <v>0.003370387299273047</v>
+      </c>
+      <c r="T30">
+        <v>0.004726967627669993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.4065976666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.219793</v>
+      </c>
+      <c r="I31">
+        <v>0.07766423257279401</v>
+      </c>
+      <c r="J31">
+        <v>0.1034553768310363</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>25.708558</v>
+      </c>
+      <c r="N31">
+        <v>51.417116</v>
+      </c>
+      <c r="O31">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="P31">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="Q31">
+        <v>10.45303969616467</v>
+      </c>
+      <c r="R31">
+        <v>62.71823817698801</v>
+      </c>
+      <c r="S31">
+        <v>0.007389366253916886</v>
+      </c>
+      <c r="T31">
+        <v>0.006909056629544435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.6191445</v>
+      </c>
+      <c r="H32">
+        <v>7.238289</v>
+      </c>
+      <c r="I32">
+        <v>0.6912929000966924</v>
+      </c>
+      <c r="J32">
+        <v>0.6139073728960115</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>14.989415</v>
+      </c>
+      <c r="N32">
+        <v>29.97883</v>
+      </c>
+      <c r="O32">
+        <v>0.05547446260572933</v>
+      </c>
+      <c r="P32">
+        <v>0.03893791130463959</v>
+      </c>
+      <c r="Q32">
+        <v>54.2488588554675</v>
+      </c>
+      <c r="R32">
+        <v>216.99543542187</v>
+      </c>
+      <c r="S32">
+        <v>0.03834910213602014</v>
+      </c>
+      <c r="T32">
+        <v>0.0239042708350892</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.6191445</v>
+      </c>
+      <c r="H33">
+        <v>7.238289</v>
+      </c>
+      <c r="I33">
+        <v>0.6912929000966924</v>
+      </c>
+      <c r="J33">
+        <v>0.6139073728960115</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>58.255493</v>
+      </c>
+      <c r="N33">
+        <v>174.766479</v>
+      </c>
+      <c r="O33">
+        <v>0.2155982850569436</v>
+      </c>
+      <c r="P33">
+        <v>0.2269949046819425</v>
+      </c>
+      <c r="Q33">
+        <v>210.8350470857385</v>
+      </c>
+      <c r="R33">
+        <v>1265.010282514431</v>
+      </c>
+      <c r="S33">
+        <v>0.1490415637328879</v>
+      </c>
+      <c r="T33">
+        <v>0.1393538455940719</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.6191445</v>
+      </c>
+      <c r="H34">
+        <v>7.238289</v>
+      </c>
+      <c r="I34">
+        <v>0.6912929000966924</v>
+      </c>
+      <c r="J34">
+        <v>0.6139073728960115</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>80.178917</v>
+      </c>
+      <c r="N34">
+        <v>240.536751</v>
+      </c>
+      <c r="O34">
+        <v>0.2967348847759819</v>
+      </c>
+      <c r="P34">
+        <v>0.3124204205415681</v>
+      </c>
+      <c r="Q34">
+        <v>290.1790864765065</v>
+      </c>
+      <c r="R34">
+        <v>1741.074518859039</v>
+      </c>
+      <c r="S34">
+        <v>0.2051307190566464</v>
+      </c>
+      <c r="T34">
+        <v>0.1917971996137412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.6191445</v>
+      </c>
+      <c r="H35">
+        <v>7.238289</v>
+      </c>
+      <c r="I35">
+        <v>0.6912929000966924</v>
+      </c>
+      <c r="J35">
+        <v>0.6139073728960115</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>79.34548433333335</v>
+      </c>
+      <c r="N35">
+        <v>238.036453</v>
+      </c>
+      <c r="O35">
+        <v>0.2936504262229702</v>
+      </c>
+      <c r="P35">
+        <v>0.3091729161606711</v>
+      </c>
+      <c r="Q35">
+        <v>287.1627732248195</v>
+      </c>
+      <c r="R35">
+        <v>1722.976639348917</v>
+      </c>
+      <c r="S35">
+        <v>0.2029984547583069</v>
+      </c>
+      <c r="T35">
+        <v>0.1898035327307964</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.6191445</v>
+      </c>
+      <c r="H36">
+        <v>7.238289</v>
+      </c>
+      <c r="I36">
+        <v>0.6912929000966924</v>
+      </c>
+      <c r="J36">
+        <v>0.6139073728960115</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>11.726012</v>
+      </c>
+      <c r="N36">
+        <v>35.17803600000001</v>
+      </c>
+      <c r="O36">
+        <v>0.04339690469630293</v>
+      </c>
+      <c r="P36">
+        <v>0.04569088405516222</v>
+      </c>
+      <c r="Q36">
+        <v>42.43813183673401</v>
+      </c>
+      <c r="R36">
+        <v>254.628791020404</v>
+      </c>
+      <c r="S36">
+        <v>0.02999997210272702</v>
+      </c>
+      <c r="T36">
+        <v>0.0280499705956009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.6191445</v>
+      </c>
+      <c r="H37">
+        <v>7.238289</v>
+      </c>
+      <c r="I37">
+        <v>0.6912929000966924</v>
+      </c>
+      <c r="J37">
+        <v>0.6139073728960115</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>25.708558</v>
+      </c>
+      <c r="N37">
+        <v>51.417116</v>
+      </c>
+      <c r="O37">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="P37">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="Q37">
+        <v>93.042986288631</v>
+      </c>
+      <c r="R37">
+        <v>372.171945154524</v>
+      </c>
+      <c r="S37">
+        <v>0.06577308831010401</v>
+      </c>
+      <c r="T37">
+        <v>0.04099855352671196</v>
       </c>
     </row>
   </sheetData>
